--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Slitrk2</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slitrk2</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1780806666666667</v>
+        <v>0.1735436666666667</v>
       </c>
       <c r="H2">
-        <v>0.534242</v>
+        <v>0.520631</v>
       </c>
       <c r="I2">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="J2">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>0.734972449858889</v>
+        <v>0.6172535767885555</v>
       </c>
       <c r="R2">
-        <v>6.614752048730001</v>
+        <v>5.555282191097</v>
       </c>
       <c r="S2">
-        <v>0.05468845602454835</v>
+        <v>0.02112846855730494</v>
       </c>
       <c r="T2">
-        <v>0.05468845602454835</v>
+        <v>0.02112846855730494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1780806666666667</v>
+        <v>0.1735436666666667</v>
       </c>
       <c r="H3">
-        <v>0.534242</v>
+        <v>0.520631</v>
       </c>
       <c r="I3">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="J3">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>8.414135793742222</v>
+        <v>8.199767020248888</v>
       </c>
       <c r="R3">
-        <v>75.72722214368</v>
+        <v>73.79790318223999</v>
       </c>
       <c r="S3">
-        <v>0.626086182453502</v>
+        <v>0.2806764127085846</v>
       </c>
       <c r="T3">
-        <v>0.626086182453502</v>
+        <v>0.2806764127085846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1780806666666667</v>
+        <v>0.1735436666666667</v>
       </c>
       <c r="H4">
-        <v>0.534242</v>
+        <v>0.520631</v>
       </c>
       <c r="I4">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="J4">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>2.480004491398889</v>
+        <v>4.257326489572444</v>
       </c>
       <c r="R4">
-        <v>22.32004042259</v>
+        <v>38.31593840615199</v>
       </c>
       <c r="S4">
-        <v>0.1845342864138518</v>
+        <v>0.1457274485813568</v>
       </c>
       <c r="T4">
-        <v>0.1845342864138518</v>
+        <v>0.1457274485813568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1780806666666667</v>
+        <v>0.1735436666666667</v>
       </c>
       <c r="H5">
-        <v>0.534242</v>
+        <v>0.520631</v>
       </c>
       <c r="I5">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="J5">
-        <v>0.9742150544693297</v>
+        <v>0.4935485124749614</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>1.463617931072</v>
+        <v>1.344330907849556</v>
       </c>
       <c r="R5">
-        <v>13.172561379648</v>
+        <v>12.098978170646</v>
       </c>
       <c r="S5">
-        <v>0.1089061295774275</v>
+        <v>0.0460161826277151</v>
       </c>
       <c r="T5">
-        <v>0.1089061295774275</v>
+        <v>0.04601618262771509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.004713333333333333</v>
+        <v>0.1780806666666667</v>
       </c>
       <c r="H6">
-        <v>0.01414</v>
+        <v>0.534242</v>
       </c>
       <c r="I6">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="J6">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>0.01945281434444445</v>
+        <v>0.6333906074948888</v>
       </c>
       <c r="R6">
-        <v>0.1750753291</v>
+        <v>5.700515467454</v>
       </c>
       <c r="S6">
-        <v>0.001447461577687852</v>
+        <v>0.02168083594521207</v>
       </c>
       <c r="T6">
-        <v>0.001447461577687853</v>
+        <v>0.02168083594521207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.004713333333333333</v>
+        <v>0.1780806666666667</v>
       </c>
       <c r="H7">
-        <v>0.01414</v>
+        <v>0.534242</v>
       </c>
       <c r="I7">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="J7">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
-        <v>0.2227003495111111</v>
+        <v>8.414135793742222</v>
       </c>
       <c r="R7">
-        <v>2.0043031456</v>
+        <v>75.72722214368</v>
       </c>
       <c r="S7">
-        <v>0.01657087728013245</v>
+        <v>0.2880142136719859</v>
       </c>
       <c r="T7">
-        <v>0.01657087728013245</v>
+        <v>0.2880142136719858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.004713333333333333</v>
+        <v>0.1780806666666667</v>
       </c>
       <c r="H8">
-        <v>0.01414</v>
+        <v>0.534242</v>
       </c>
       <c r="I8">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="J8">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>0.06563928614444445</v>
+        <v>4.36862695160711</v>
       </c>
       <c r="R8">
-        <v>0.5907535753000001</v>
+        <v>39.31764256446399</v>
       </c>
       <c r="S8">
-        <v>0.004884143908363371</v>
+        <v>0.1495372415107845</v>
       </c>
       <c r="T8">
-        <v>0.004884143908363372</v>
+        <v>0.1495372415107844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.004713333333333333</v>
+        <v>0.1780806666666667</v>
       </c>
       <c r="H9">
-        <v>0.01414</v>
+        <v>0.534242</v>
       </c>
       <c r="I9">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="J9">
-        <v>0.02578494553067022</v>
+        <v>0.5064514875250385</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>0.03873817023999999</v>
+        <v>1.379476121996889</v>
       </c>
       <c r="R9">
-        <v>0.3486435321599999</v>
+        <v>12.415285097972</v>
       </c>
       <c r="S9">
-        <v>0.002882462764486553</v>
+        <v>0.04721919639705621</v>
       </c>
       <c r="T9">
-        <v>0.002882462764486553</v>
+        <v>0.04721919639705621</v>
       </c>
     </row>
   </sheetData>
